--- a/Code/Results/Cases/Case_2_201/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_2_201/res_line/loading_percent.xlsx
@@ -421,43 +421,43 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>24.06157899684078</v>
+        <v>22.69183541765118</v>
       </c>
       <c r="C2">
-        <v>17.8854919374659</v>
+        <v>11.10752750488409</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>6.957382761084527</v>
+        <v>10.33249327558904</v>
       </c>
       <c r="F2">
-        <v>35.48401793148147</v>
+        <v>46.27679218474852</v>
       </c>
       <c r="G2">
-        <v>2.103768575455268</v>
+        <v>3.733460641871543</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>23.83118358783668</v>
+        <v>33.13978354058633</v>
       </c>
       <c r="J2">
-        <v>5.784791118617564</v>
+        <v>9.635956075275796</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2">
-        <v>6.775850612144907</v>
+        <v>11.73619395249847</v>
       </c>
       <c r="M2">
-        <v>14.22048385842672</v>
+        <v>19.37031372650769</v>
       </c>
       <c r="N2">
-        <v>13.82186230802726</v>
+        <v>21.20273523982256</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -468,43 +468,43 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>22.5719002601723</v>
+        <v>22.36139988102607</v>
       </c>
       <c r="C3">
-        <v>16.58459953347326</v>
+        <v>10.60700482395662</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>6.761686920816117</v>
+        <v>10.2876800664619</v>
       </c>
       <c r="F3">
-        <v>34.472606620417</v>
+        <v>46.22764367341238</v>
       </c>
       <c r="G3">
-        <v>2.114908912942693</v>
+        <v>3.737427886411731</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>23.47549715141545</v>
+        <v>33.1746926346746</v>
       </c>
       <c r="J3">
-        <v>5.879523405238643</v>
+        <v>9.660666996068327</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>6.695073653416474</v>
+        <v>11.74736285473079</v>
       </c>
       <c r="M3">
-        <v>13.65396152079301</v>
+        <v>19.32119438438105</v>
       </c>
       <c r="N3">
-        <v>14.08350610846187</v>
+        <v>21.27294099973652</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -515,43 +515,43 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>21.6244309545659</v>
+        <v>22.16241178435306</v>
       </c>
       <c r="C4">
-        <v>15.7474987571027</v>
+        <v>10.29094830652745</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>6.640875798904561</v>
+        <v>10.25942472709585</v>
       </c>
       <c r="F4">
-        <v>33.87052041977559</v>
+        <v>46.20838312660449</v>
       </c>
       <c r="G4">
-        <v>2.121906163102834</v>
+        <v>3.739989981559146</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>23.27822166194288</v>
+        <v>33.20342203207819</v>
       </c>
       <c r="J4">
-        <v>5.938307324185753</v>
+        <v>9.676497056680541</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>6.647680414176836</v>
+        <v>11.75556946606037</v>
       </c>
       <c r="M4">
-        <v>13.30370264936412</v>
+        <v>19.29481914174692</v>
       </c>
       <c r="N4">
-        <v>14.24731556576245</v>
+        <v>21.31804342365202</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -562,43 +562,43 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>21.23030363191532</v>
+        <v>22.08240710906484</v>
       </c>
       <c r="C5">
-        <v>15.39656524278142</v>
+        <v>10.16016747109926</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>6.591438431952479</v>
+        <v>10.24772414268564</v>
       </c>
       <c r="F5">
-        <v>33.63003161426698</v>
+        <v>46.20328091412085</v>
       </c>
       <c r="G5">
-        <v>2.12479973064027</v>
+        <v>3.741065909122216</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>23.20295225718679</v>
+        <v>33.21695797436008</v>
       </c>
       <c r="J5">
-        <v>5.962443790078096</v>
+        <v>9.683113933899188</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="L5">
-        <v>6.628926617256706</v>
+        <v>11.75925353042314</v>
       </c>
       <c r="M5">
-        <v>13.16053558870138</v>
+        <v>19.28502977258219</v>
       </c>
       <c r="N5">
-        <v>14.31489485107113</v>
+        <v>21.33692609701802</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -609,43 +609,43 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>21.16438251098889</v>
+        <v>22.06919089316958</v>
       </c>
       <c r="C6">
-        <v>15.33769609021001</v>
+        <v>10.13833820988836</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>6.583215858140578</v>
+        <v>10.24577000933829</v>
       </c>
       <c r="F6">
-        <v>33.59039575016365</v>
+        <v>46.20259958730426</v>
       </c>
       <c r="G6">
-        <v>2.125282823438234</v>
+        <v>3.741246493475468</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>23.19075758273238</v>
+        <v>33.2193158574335</v>
       </c>
       <c r="J6">
-        <v>5.966463324023941</v>
+        <v>9.684222707076447</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6">
-        <v>6.625846486771014</v>
+        <v>11.7598858072768</v>
       </c>
       <c r="M6">
-        <v>13.13674211155825</v>
+        <v>19.28346235454042</v>
       </c>
       <c r="N6">
-        <v>14.32616710449166</v>
+        <v>21.34009197034123</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -656,43 +656,43 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>21.61914775644151</v>
+        <v>22.16132828633143</v>
       </c>
       <c r="C7">
-        <v>15.74280586488087</v>
+        <v>10.28919228977277</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>6.640209953465676</v>
+        <v>10.25926768355788</v>
       </c>
       <c r="F7">
-        <v>33.86725725525636</v>
+        <v>46.20830319519824</v>
       </c>
       <c r="G7">
-        <v>2.121945012828581</v>
+        <v>3.740004362764136</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>23.27718606603344</v>
+        <v>33.203597187548</v>
       </c>
       <c r="J7">
-        <v>5.938632068794074</v>
+        <v>9.676585621209281</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="L7">
-        <v>6.647425222741468</v>
+        <v>11.75561777398629</v>
       </c>
       <c r="M7">
-        <v>13.30177335906096</v>
+        <v>19.29468322813419</v>
       </c>
       <c r="N7">
-        <v>14.24822357997254</v>
+        <v>21.31829604354091</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -703,43 +703,43 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>23.55485299894769</v>
+        <v>22.57715443026774</v>
       </c>
       <c r="C8">
-        <v>17.44479850744953</v>
+        <v>10.93687814564957</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>6.890015325528267</v>
+        <v>10.31719507299434</v>
       </c>
       <c r="F8">
-        <v>35.13141752626165</v>
+        <v>46.25758148267123</v>
       </c>
       <c r="G8">
-        <v>2.1075788276807</v>
+        <v>3.734802429988032</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>23.70404800618794</v>
+        <v>33.1503027182352</v>
       </c>
       <c r="J8">
-        <v>5.817342963780674</v>
+        <v>9.644340355272549</v>
       </c>
       <c r="K8">
         <v>0</v>
       </c>
       <c r="L8">
-        <v>6.747544358602663</v>
+        <v>11.73976541641629</v>
       </c>
       <c r="M8">
-        <v>14.02574369414145</v>
+        <v>19.35259652223548</v>
       </c>
       <c r="N8">
-        <v>13.9114404317334</v>
+        <v>21.22652868743057</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -750,43 +750,43 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>27.09061575245651</v>
+        <v>23.41891177700256</v>
       </c>
       <c r="C9">
-        <v>20.48650213216508</v>
+        <v>12.12975601855404</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>7.376956385710525</v>
+        <v>10.4249349088674</v>
       </c>
       <c r="F9">
-        <v>37.75664537035246</v>
+        <v>46.44068649803159</v>
       </c>
       <c r="G9">
-        <v>2.080521513397535</v>
+        <v>3.725597194186181</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>24.71699766613264</v>
+        <v>33.10391686239163</v>
       </c>
       <c r="J9">
-        <v>5.583099951335285</v>
+        <v>9.586292756869092</v>
       </c>
       <c r="K9">
         <v>0</v>
       </c>
       <c r="L9">
-        <v>6.961150280051931</v>
+        <v>11.71935371706452</v>
       </c>
       <c r="M9">
-        <v>15.42004063746939</v>
+        <v>19.49583857479395</v>
       </c>
       <c r="N9">
-        <v>13.2746345081312</v>
+        <v>21.0623525225732</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -797,43 +797,43 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>29.70029592150046</v>
+        <v>24.04717749372744</v>
       </c>
       <c r="C10">
-        <v>22.55396331034533</v>
+        <v>12.95014541542297</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>7.736734133895798</v>
+        <v>10.50054638302256</v>
       </c>
       <c r="F10">
-        <v>39.77134745621299</v>
+        <v>46.62760444717896</v>
       </c>
       <c r="G10">
-        <v>2.061118182207097</v>
+        <v>3.719433397302538</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>25.58005152099961</v>
+        <v>33.10556613518016</v>
       </c>
       <c r="J10">
-        <v>5.411189950661518</v>
+        <v>9.546761709003752</v>
       </c>
       <c r="K10">
         <v>0</v>
       </c>
       <c r="L10">
-        <v>7.128374629820517</v>
+        <v>11.7108265277745</v>
       </c>
       <c r="M10">
-        <v>16.4225759972753</v>
+        <v>19.61864548536609</v>
       </c>
       <c r="N10">
-        <v>12.81916046605067</v>
+        <v>20.95127093701731</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -844,43 +844,43 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>30.84280281736636</v>
+        <v>24.33382211724222</v>
       </c>
       <c r="C11">
-        <v>23.46153813463419</v>
+        <v>13.30973848365806</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>7.901909851480228</v>
+        <v>10.53417964141804</v>
       </c>
       <c r="F11">
-        <v>40.70668478107826</v>
+        <v>46.7239013336596</v>
       </c>
       <c r="G11">
-        <v>2.052342263648734</v>
+        <v>3.716757803011962</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>26.00115481802183</v>
+        <v>33.11412358573945</v>
       </c>
       <c r="J11">
-        <v>5.33251485074058</v>
+        <v>9.529445154925391</v>
       </c>
       <c r="K11">
         <v>0</v>
       </c>
       <c r="L11">
-        <v>7.2066528540472</v>
+        <v>11.70834312562328</v>
       </c>
       <c r="M11">
-        <v>16.87316257213292</v>
+        <v>19.67819961867776</v>
       </c>
       <c r="N11">
-        <v>12.61421651661902</v>
+        <v>20.90279115907137</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -891,43 +891,43 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>31.26928667775895</v>
+        <v>24.44238218660962</v>
       </c>
       <c r="C12">
-        <v>23.80079786760006</v>
+        <v>13.44385307855335</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>7.964782995341377</v>
+        <v>10.54680628847935</v>
       </c>
       <c r="F12">
-        <v>41.0636608847319</v>
+        <v>46.76197338624637</v>
       </c>
       <c r="G12">
-        <v>2.049021366680972</v>
+        <v>3.715762954203736</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>26.16495573515208</v>
+        <v>33.11848939074507</v>
       </c>
       <c r="J12">
-        <v>5.30260645064767</v>
+        <v>9.522982916642428</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>7.236611478095645</v>
+        <v>11.70760258101277</v>
       </c>
       <c r="M12">
-        <v>17.04297893656283</v>
+        <v>19.70126950978684</v>
       </c>
       <c r="N12">
-        <v>12.53690113918162</v>
+        <v>20.88472695859702</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -938,43 +938,43 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>31.17770498520107</v>
+        <v>24.41900288768333</v>
       </c>
       <c r="C13">
-        <v>23.72792330540689</v>
+        <v>13.4150619294855</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>7.95122578491481</v>
+        <v>10.54409178353195</v>
       </c>
       <c r="F13">
-        <v>40.98665395740426</v>
+        <v>46.75370267853432</v>
       </c>
       <c r="G13">
-        <v>2.049736562317292</v>
+        <v>3.715976398823183</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>26.12948120542299</v>
+        <v>33.11749905567941</v>
       </c>
       <c r="J13">
-        <v>5.309053737255713</v>
+        <v>9.5243704531327</v>
       </c>
       <c r="K13">
         <v>0</v>
       </c>
       <c r="L13">
-        <v>7.230145272809533</v>
+        <v>11.70775319512827</v>
       </c>
       <c r="M13">
-        <v>17.00644205690784</v>
+        <v>19.69627816131552</v>
       </c>
       <c r="N13">
-        <v>12.55353985830774</v>
+        <v>20.88860434567573</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -985,43 +985,43 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>30.87801166386757</v>
+        <v>24.34275374323489</v>
       </c>
       <c r="C14">
-        <v>23.48953585480513</v>
+        <v>13.3208138784115</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>7.907075273184516</v>
+        <v>10.53522063773148</v>
       </c>
       <c r="F14">
-        <v>40.73599695437687</v>
+        <v>46.72700143325964</v>
       </c>
       <c r="G14">
-        <v>2.052069034930038</v>
+        <v>3.716675589288141</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>26.0145423977457</v>
+        <v>33.11446019852435</v>
       </c>
       <c r="J14">
-        <v>5.330056885491518</v>
+        <v>9.528911599169211</v>
       </c>
       <c r="K14">
         <v>0</v>
       </c>
       <c r="L14">
-        <v>7.209111225135985</v>
+        <v>11.70827819986646</v>
       </c>
       <c r="M14">
-        <v>16.88714974489195</v>
+        <v>19.6800872839111</v>
       </c>
       <c r="N14">
-        <v>12.60785004499501</v>
+        <v>20.90129911913207</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1032,43 +1032,43 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>30.69364737579895</v>
+        <v>24.29604762720489</v>
       </c>
       <c r="C15">
-        <v>23.34295119020361</v>
+        <v>13.2628138714214</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>7.880077601380747</v>
+        <v>10.52977254406679</v>
       </c>
       <c r="F15">
-        <v>40.58282823830462</v>
+        <v>46.71085492302217</v>
       </c>
       <c r="G15">
-        <v>2.053497890442262</v>
+        <v>3.717106248711519</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>25.94471162700239</v>
+        <v>33.11274542053535</v>
       </c>
       <c r="J15">
-        <v>5.342905313213091</v>
+        <v>9.531705556231444</v>
       </c>
       <c r="K15">
         <v>0</v>
       </c>
       <c r="L15">
-        <v>7.196268472850141</v>
+        <v>11.70862578351554</v>
       </c>
       <c r="M15">
-        <v>16.81397397130117</v>
+        <v>19.67023698700138</v>
       </c>
       <c r="N15">
-        <v>12.64115379172627</v>
+        <v>20.90911329751874</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1079,43 +1079,43 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>29.6247532755338</v>
+        <v>24.02845232434971</v>
       </c>
       <c r="C16">
-        <v>22.49401471141719</v>
+        <v>12.92636254896637</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>7.725978681578178</v>
+        <v>10.49833303422999</v>
       </c>
       <c r="F16">
-        <v>39.71060500531689</v>
+        <v>46.62153681986544</v>
       </c>
       <c r="G16">
-        <v>2.061692321945032</v>
+        <v>3.719610826477834</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>25.55312481592361</v>
+        <v>33.10516422781664</v>
       </c>
       <c r="J16">
-        <v>5.416318079820594</v>
+        <v>9.547906738887518</v>
       </c>
       <c r="K16">
         <v>0</v>
       </c>
       <c r="L16">
-        <v>7.123303237282795</v>
+        <v>11.71101683841221</v>
       </c>
       <c r="M16">
-        <v>16.3930162112103</v>
+        <v>19.6148266655179</v>
       </c>
       <c r="N16">
-        <v>12.83259662815814</v>
+        <v>20.95448040534768</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1126,43 +1126,43 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>28.95775736886074</v>
+        <v>23.86443002368452</v>
       </c>
       <c r="C17">
-        <v>21.96499935217414</v>
+        <v>12.71640015451861</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>7.631901740201102</v>
+        <v>10.47885065437423</v>
       </c>
       <c r="F17">
-        <v>39.18038292094796</v>
+        <v>46.5696197523377</v>
       </c>
       <c r="G17">
-        <v>2.066729014755274</v>
+        <v>3.721180094386317</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>25.3203607851661</v>
+        <v>33.10251512813671</v>
       </c>
       <c r="J17">
-        <v>5.461201096880272</v>
+        <v>9.558015836085515</v>
       </c>
       <c r="K17">
         <v>0</v>
       </c>
       <c r="L17">
-        <v>7.079105293534694</v>
+        <v>11.71284055999291</v>
       </c>
       <c r="M17">
-        <v>16.13334363506312</v>
+        <v>19.5817704009589</v>
       </c>
       <c r="N17">
-        <v>12.95059462399662</v>
+        <v>20.98283644726387</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1173,43 +1173,43 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>28.56989791030307</v>
+        <v>23.7701743741001</v>
       </c>
       <c r="C18">
-        <v>21.65760374385108</v>
+        <v>12.59435948557309</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>7.577925950384682</v>
+        <v>10.46757309967386</v>
       </c>
       <c r="F18">
-        <v>38.87717833325668</v>
+        <v>46.54081988384105</v>
       </c>
       <c r="G18">
-        <v>2.06963109513617</v>
+        <v>3.72209478337115</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>25.18914756564536</v>
+        <v>33.10172617766026</v>
       </c>
       <c r="J18">
-        <v>5.486975342406643</v>
+        <v>9.563893077232628</v>
       </c>
       <c r="K18">
         <v>0</v>
       </c>
       <c r="L18">
-        <v>7.053891483587907</v>
+        <v>11.71402093486677</v>
       </c>
       <c r="M18">
-        <v>15.98347130367389</v>
+        <v>19.56310529537613</v>
       </c>
       <c r="N18">
-        <v>13.01867785227909</v>
+        <v>20.99933927589736</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1220,43 +1220,43 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>28.43784316091503</v>
+        <v>23.73827905673154</v>
       </c>
       <c r="C19">
-        <v>21.55298003845301</v>
+        <v>12.55282276121623</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>7.559670845908302</v>
+        <v>10.4637423762538</v>
       </c>
       <c r="F19">
-        <v>38.77482038501626</v>
+        <v>46.5312514305962</v>
       </c>
       <c r="G19">
-        <v>2.07061470758191</v>
+        <v>3.722406560927168</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>25.14517207674869</v>
+        <v>33.10158515259094</v>
       </c>
       <c r="J19">
-        <v>5.495696338866107</v>
+        <v>9.565893808310383</v>
       </c>
       <c r="K19">
         <v>0</v>
       </c>
       <c r="L19">
-        <v>7.045390256503305</v>
+        <v>11.71444318524882</v>
       </c>
       <c r="M19">
-        <v>15.93263981594786</v>
+        <v>19.55684574318029</v>
       </c>
       <c r="N19">
-        <v>13.04176739957466</v>
+        <v>21.0049600604872</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1267,43 +1267,43 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>29.02919533448665</v>
+        <v>23.88188240103444</v>
       </c>
       <c r="C20">
-        <v>22.02163468561759</v>
+        <v>12.73888382286804</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>7.641901722534741</v>
+        <v>10.48093201742699</v>
       </c>
       <c r="F20">
-        <v>39.23664294464</v>
+        <v>46.57503664845567</v>
       </c>
       <c r="G20">
-        <v>2.066192355386801</v>
+        <v>3.721011792958437</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>25.34486128155811</v>
+        <v>33.10272106494932</v>
       </c>
       <c r="J20">
-        <v>5.456427824478773</v>
+        <v>9.556933215165083</v>
       </c>
       <c r="K20">
         <v>0</v>
       </c>
       <c r="L20">
-        <v>7.083788760706462</v>
+        <v>11.71263282626466</v>
       </c>
       <c r="M20">
-        <v>16.16103985545458</v>
+        <v>19.58525336920712</v>
       </c>
       <c r="N20">
-        <v>12.93801163400527</v>
+        <v>20.9797979118183</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1314,43 +1314,43 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>30.96620368253601</v>
+        <v>24.36515042607937</v>
       </c>
       <c r="C21">
-        <v>23.55967325043212</v>
+        <v>13.34855331214983</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>7.920033587023837</v>
+        <v>10.53782927995752</v>
       </c>
       <c r="F21">
-        <v>40.80954450226078</v>
+        <v>46.73480075537117</v>
       </c>
       <c r="G21">
-        <v>2.051383909950405</v>
+        <v>3.716469723257688</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>26.04818291986901</v>
+        <v>33.11532222758976</v>
       </c>
       <c r="J21">
-        <v>5.323891306409893</v>
+        <v>9.527575176927328</v>
       </c>
       <c r="K21">
         <v>0</v>
       </c>
       <c r="L21">
-        <v>7.215280845226308</v>
+        <v>11.70811857577114</v>
       </c>
       <c r="M21">
-        <v>16.9222108327937</v>
+        <v>19.6848289801627</v>
       </c>
       <c r="N21">
-        <v>12.59189012913835</v>
+        <v>20.89756238420811</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1361,43 +1361,43 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>32.19640888978802</v>
+        <v>24.68102796243648</v>
       </c>
       <c r="C22">
-        <v>24.53928864254337</v>
+        <v>13.73499131214584</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>8.10376542764358</v>
+        <v>10.57437652595184</v>
       </c>
       <c r="F22">
-        <v>41.85383948960568</v>
+        <v>46.84857199209523</v>
       </c>
       <c r="G22">
-        <v>2.041716667496671</v>
+        <v>3.713608068344191</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>26.53326404925044</v>
+        <v>33.13011750020535</v>
       </c>
       <c r="J22">
-        <v>5.236569222630695</v>
+        <v>9.508942394947493</v>
       </c>
       <c r="K22">
         <v>0</v>
       </c>
       <c r="L22">
-        <v>7.303063858783013</v>
+        <v>11.70633280718915</v>
       </c>
       <c r="M22">
-        <v>17.41496476998831</v>
+        <v>19.75292064040354</v>
       </c>
       <c r="N22">
-        <v>12.36737175889641</v>
+        <v>20.84553014732635</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1408,43 +1408,43 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>31.54299663490229</v>
+        <v>24.51246970280025</v>
       </c>
       <c r="C23">
-        <v>24.01867523370457</v>
+        <v>13.52987029765951</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>8.005484679668299</v>
+        <v>10.55492893871679</v>
       </c>
       <c r="F23">
-        <v>41.29494431297381</v>
+        <v>46.78699911155002</v>
       </c>
       <c r="G23">
-        <v>2.046877064564004</v>
+        <v>3.715125648696841</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>26.27195413148483</v>
+        <v>33.121620107833</v>
       </c>
       <c r="J23">
-        <v>5.283256260718828</v>
+        <v>9.518836548929322</v>
       </c>
       <c r="K23">
         <v>0</v>
       </c>
       <c r="L23">
-        <v>7.256043252748682</v>
+        <v>11.70717963393883</v>
       </c>
       <c r="M23">
-        <v>17.1524037918797</v>
+        <v>19.71630740754513</v>
       </c>
       <c r="N23">
-        <v>12.48705633510171</v>
+        <v>20.87314427881854</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1455,43 +1455,43 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>28.99691193770772</v>
+        <v>23.87399203926301</v>
       </c>
       <c r="C24">
-        <v>21.99604002144117</v>
+        <v>12.72872309292122</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>7.637380394817403</v>
+        <v>10.47999127265007</v>
       </c>
       <c r="F24">
-        <v>39.21120272447931</v>
+        <v>46.57258440459422</v>
       </c>
       <c r="G24">
-        <v>2.066434958730185</v>
+        <v>3.721087843103332</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>25.33377650809151</v>
+        <v>33.10262567471515</v>
       </c>
       <c r="J24">
-        <v>5.458585909586044</v>
+        <v>9.557422464369845</v>
       </c>
       <c r="K24">
         <v>0</v>
       </c>
       <c r="L24">
-        <v>7.081670754036719</v>
+        <v>11.71272633180347</v>
       </c>
       <c r="M24">
-        <v>16.14852020822904</v>
+        <v>19.58367766123458</v>
       </c>
       <c r="N24">
-        <v>12.9436996394631</v>
+        <v>20.98117100890988</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1502,43 +1502,43 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>26.15888426944668</v>
+        <v>23.18902021149501</v>
       </c>
       <c r="C25">
-        <v>19.69405323326763</v>
+        <v>11.81632833875873</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>7.245185426233869</v>
+        <v>10.39641271365947</v>
       </c>
       <c r="F25">
-        <v>37.03124557866948</v>
+        <v>46.38191938514733</v>
       </c>
       <c r="G25">
-        <v>2.087741619629</v>
+        <v>3.727981655479989</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>24.42295669126493</v>
+        <v>33.11020964315897</v>
       </c>
       <c r="J25">
-        <v>5.646277849867339</v>
+        <v>9.601445663726411</v>
       </c>
       <c r="K25">
         <v>0</v>
       </c>
       <c r="L25">
-        <v>6.901542389086281</v>
+        <v>11.72373660893299</v>
       </c>
       <c r="M25">
-        <v>15.04633071298132</v>
+        <v>19.45396165529186</v>
       </c>
       <c r="N25">
-        <v>13.44458605990211</v>
+        <v>21.10508566990527</v>
       </c>
       <c r="O25">
         <v>0</v>

--- a/Code/Results/Cases/Case_2_201/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_2_201/res_line/loading_percent.xlsx
@@ -421,43 +421,43 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>22.69183541765118</v>
+        <v>24.06157899684082</v>
       </c>
       <c r="C2">
-        <v>11.10752750488409</v>
+        <v>17.8854919374659</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>10.33249327558904</v>
+        <v>6.957382761084665</v>
       </c>
       <c r="F2">
-        <v>46.27679218474852</v>
+        <v>35.48401793148153</v>
       </c>
       <c r="G2">
-        <v>3.733460641871543</v>
+        <v>2.103768575455667</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>33.13978354058633</v>
+        <v>23.83118358783673</v>
       </c>
       <c r="J2">
-        <v>9.635956075275796</v>
+        <v>5.784791118617534</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2">
-        <v>11.73619395249847</v>
+        <v>6.77585061214497</v>
       </c>
       <c r="M2">
-        <v>19.37031372650769</v>
+        <v>14.22048385842674</v>
       </c>
       <c r="N2">
-        <v>21.20273523982256</v>
+        <v>13.8218623080273</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -468,43 +468,43 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>22.36139988102607</v>
+        <v>22.57190026017232</v>
       </c>
       <c r="C3">
-        <v>10.60700482395662</v>
+        <v>16.58459953347317</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>10.2876800664619</v>
+        <v>6.761686920815984</v>
       </c>
       <c r="F3">
-        <v>46.22764367341238</v>
+        <v>34.47260662041708</v>
       </c>
       <c r="G3">
-        <v>3.737427886411731</v>
+        <v>2.114908912942828</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>33.1746926346746</v>
+        <v>23.47549715141556</v>
       </c>
       <c r="J3">
-        <v>9.660666996068327</v>
+        <v>5.87952340523868</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>11.74736285473079</v>
+        <v>6.695073653416443</v>
       </c>
       <c r="M3">
-        <v>19.32119438438105</v>
+        <v>13.65396152079299</v>
       </c>
       <c r="N3">
-        <v>21.27294099973652</v>
+        <v>14.08350610846194</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -515,43 +515,43 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>22.16241178435306</v>
+        <v>21.62443095456591</v>
       </c>
       <c r="C4">
-        <v>10.29094830652745</v>
+        <v>15.74749875710262</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>10.25942472709585</v>
+        <v>6.640875798904693</v>
       </c>
       <c r="F4">
-        <v>46.20838312660449</v>
+        <v>33.87052041977564</v>
       </c>
       <c r="G4">
-        <v>3.739989981559146</v>
+        <v>2.12190616310283</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>33.20342203207819</v>
+        <v>23.27822166194284</v>
       </c>
       <c r="J4">
-        <v>9.676497056680541</v>
+        <v>5.938307324185818</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>11.75556946606037</v>
+        <v>6.647680414176929</v>
       </c>
       <c r="M4">
-        <v>19.29481914174692</v>
+        <v>13.30370264936418</v>
       </c>
       <c r="N4">
-        <v>21.31804342365202</v>
+        <v>14.24731556576242</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -562,43 +562,43 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>22.08240710906484</v>
+        <v>21.2303036319153</v>
       </c>
       <c r="C5">
-        <v>10.16016747109926</v>
+        <v>15.39656524278149</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>10.24772414268564</v>
+        <v>6.591438431952542</v>
       </c>
       <c r="F5">
-        <v>46.20328091412085</v>
+        <v>33.63003161426701</v>
       </c>
       <c r="G5">
-        <v>3.741065909122216</v>
+        <v>2.124799730640266</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>33.21695797436008</v>
+        <v>23.20295225718673</v>
       </c>
       <c r="J5">
-        <v>9.683113933899188</v>
+        <v>5.962443790077933</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="L5">
-        <v>11.75925353042314</v>
+        <v>6.628926617256712</v>
       </c>
       <c r="M5">
-        <v>19.28502977258219</v>
+        <v>13.16053558870137</v>
       </c>
       <c r="N5">
-        <v>21.33692609701802</v>
+        <v>14.31489485107103</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -609,43 +609,43 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>22.06919089316958</v>
+        <v>21.16438251098889</v>
       </c>
       <c r="C6">
-        <v>10.13833820988836</v>
+        <v>15.33769609021007</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>10.24577000933829</v>
+        <v>6.583215858140455</v>
       </c>
       <c r="F6">
-        <v>46.20259958730426</v>
+        <v>33.59039575016349</v>
       </c>
       <c r="G6">
-        <v>3.741246493475468</v>
+        <v>2.125282823438106</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>33.2193158574335</v>
+        <v>23.19075758273231</v>
       </c>
       <c r="J6">
-        <v>9.684222707076447</v>
+        <v>5.966463324023876</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6">
-        <v>11.7598858072768</v>
+        <v>6.62584648677088</v>
       </c>
       <c r="M6">
-        <v>19.28346235454042</v>
+        <v>13.13674211155817</v>
       </c>
       <c r="N6">
-        <v>21.34009197034123</v>
+        <v>14.32616710449167</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -656,43 +656,43 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>22.16132828633143</v>
+        <v>21.61914775644151</v>
       </c>
       <c r="C7">
-        <v>10.28919228977277</v>
+        <v>15.74280586488081</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>10.25926768355788</v>
+        <v>6.64020995346555</v>
       </c>
       <c r="F7">
-        <v>46.20830319519824</v>
+        <v>33.86725725525637</v>
       </c>
       <c r="G7">
-        <v>3.740004362764136</v>
+        <v>2.121945012828582</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>33.203597187548</v>
+        <v>23.27718606603351</v>
       </c>
       <c r="J7">
-        <v>9.676585621209281</v>
+        <v>5.938632068794139</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="L7">
-        <v>11.75561777398629</v>
+        <v>6.647425222741457</v>
       </c>
       <c r="M7">
-        <v>19.29468322813419</v>
+        <v>13.30177335906096</v>
       </c>
       <c r="N7">
-        <v>21.31829604354091</v>
+        <v>14.24822357997258</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -703,43 +703,43 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>22.57715443026774</v>
+        <v>23.55485299894772</v>
       </c>
       <c r="C8">
-        <v>10.93687814564957</v>
+        <v>17.4447985074496</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>10.31719507299434</v>
+        <v>6.89001532552827</v>
       </c>
       <c r="F8">
-        <v>46.25758148267123</v>
+        <v>35.13141752626156</v>
       </c>
       <c r="G8">
-        <v>3.734802429988032</v>
+        <v>2.107578827680701</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>33.1503027182352</v>
+        <v>23.70404800618788</v>
       </c>
       <c r="J8">
-        <v>9.644340355272549</v>
+        <v>5.817342963780678</v>
       </c>
       <c r="K8">
         <v>0</v>
       </c>
       <c r="L8">
-        <v>11.73976541641629</v>
+        <v>6.747544358602616</v>
       </c>
       <c r="M8">
-        <v>19.35259652223548</v>
+        <v>14.02574369414142</v>
       </c>
       <c r="N8">
-        <v>21.22652868743057</v>
+        <v>13.91144043173334</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -750,43 +750,43 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>23.41891177700256</v>
+        <v>27.09061575245661</v>
       </c>
       <c r="C9">
-        <v>12.12975601855404</v>
+        <v>20.48650213216523</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>10.4249349088674</v>
+        <v>7.376956385710725</v>
       </c>
       <c r="F9">
-        <v>46.44068649803159</v>
+        <v>37.75664537035235</v>
       </c>
       <c r="G9">
-        <v>3.725597194186181</v>
+        <v>2.080521513397666</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>33.10391686239163</v>
+        <v>24.71699766613246</v>
       </c>
       <c r="J9">
-        <v>9.586292756869092</v>
+        <v>5.583099951335122</v>
       </c>
       <c r="K9">
         <v>0</v>
       </c>
       <c r="L9">
-        <v>11.71935371706452</v>
+        <v>6.961150280051924</v>
       </c>
       <c r="M9">
-        <v>19.49583857479395</v>
+        <v>15.42004063746936</v>
       </c>
       <c r="N9">
-        <v>21.0623525225732</v>
+        <v>13.27463450813104</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -797,43 +797,43 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>24.04717749372744</v>
+        <v>29.70029592150051</v>
       </c>
       <c r="C10">
-        <v>12.95014541542297</v>
+        <v>22.55396331034535</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>10.50054638302256</v>
+        <v>7.736734133895933</v>
       </c>
       <c r="F10">
-        <v>46.62760444717896</v>
+        <v>39.77134745621303</v>
       </c>
       <c r="G10">
-        <v>3.719433397302538</v>
+        <v>2.061118182206834</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>33.10556613518016</v>
+        <v>25.58005152099964</v>
       </c>
       <c r="J10">
-        <v>9.546761709003752</v>
+        <v>5.411189950661555</v>
       </c>
       <c r="K10">
         <v>0</v>
       </c>
       <c r="L10">
-        <v>11.7108265277745</v>
+        <v>7.128374629820533</v>
       </c>
       <c r="M10">
-        <v>19.61864548536609</v>
+        <v>16.42257599727532</v>
       </c>
       <c r="N10">
-        <v>20.95127093701731</v>
+        <v>12.81916046605065</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -844,43 +844,43 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>24.33382211724222</v>
+        <v>30.84280281736647</v>
       </c>
       <c r="C11">
-        <v>13.30973848365806</v>
+        <v>23.46153813463401</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>10.53417964141804</v>
+        <v>7.901909851480177</v>
       </c>
       <c r="F11">
-        <v>46.7239013336596</v>
+        <v>40.7066847810783</v>
       </c>
       <c r="G11">
-        <v>3.716757803011962</v>
+        <v>2.052342263648072</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>33.11412358573945</v>
+        <v>26.00115481802182</v>
       </c>
       <c r="J11">
-        <v>9.529445154925391</v>
+        <v>5.332514850740455</v>
       </c>
       <c r="K11">
         <v>0</v>
       </c>
       <c r="L11">
-        <v>11.70834312562328</v>
+        <v>7.206652854047229</v>
       </c>
       <c r="M11">
-        <v>19.67819961867776</v>
+        <v>16.87316257213292</v>
       </c>
       <c r="N11">
-        <v>20.90279115907137</v>
+        <v>12.61421651661897</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -891,43 +891,43 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>24.44238218660962</v>
+        <v>31.26928667775891</v>
       </c>
       <c r="C12">
-        <v>13.44385307855335</v>
+        <v>23.80079786760013</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>10.54680628847935</v>
+        <v>7.964782995341258</v>
       </c>
       <c r="F12">
-        <v>46.76197338624637</v>
+        <v>41.06366088473196</v>
       </c>
       <c r="G12">
-        <v>3.715762954203736</v>
+        <v>2.049021366681238</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>33.11848939074507</v>
+        <v>26.16495573515217</v>
       </c>
       <c r="J12">
-        <v>9.522982916642428</v>
+        <v>5.302606450647675</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>11.70760258101277</v>
+        <v>7.236611478095615</v>
       </c>
       <c r="M12">
-        <v>19.70126950978684</v>
+        <v>17.04297893656284</v>
       </c>
       <c r="N12">
-        <v>20.88472695859702</v>
+        <v>12.53690113918172</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -938,43 +938,43 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>24.41900288768333</v>
+        <v>31.17770498520101</v>
       </c>
       <c r="C13">
-        <v>13.4150619294855</v>
+        <v>23.72792330540686</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>10.54409178353195</v>
+        <v>7.95122578491481</v>
       </c>
       <c r="F13">
-        <v>46.75370267853432</v>
+        <v>40.98665395740432</v>
       </c>
       <c r="G13">
-        <v>3.715976398823183</v>
+        <v>2.049736562317156</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>33.11749905567941</v>
+        <v>26.12948120542307</v>
       </c>
       <c r="J13">
-        <v>9.5243704531327</v>
+        <v>5.30905373725578</v>
       </c>
       <c r="K13">
         <v>0</v>
       </c>
       <c r="L13">
-        <v>11.70775319512827</v>
+        <v>7.230145272809565</v>
       </c>
       <c r="M13">
-        <v>19.69627816131552</v>
+        <v>17.00644205690785</v>
       </c>
       <c r="N13">
-        <v>20.88860434567573</v>
+        <v>12.55353985830781</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -985,43 +985,43 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>24.34275374323489</v>
+        <v>30.87801166386744</v>
       </c>
       <c r="C14">
-        <v>13.3208138784115</v>
+        <v>23.48953585480517</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>10.53522063773148</v>
+        <v>7.90707527318451</v>
       </c>
       <c r="F14">
-        <v>46.72700143325964</v>
+        <v>40.73599695437692</v>
       </c>
       <c r="G14">
-        <v>3.716675589288141</v>
+        <v>2.052069034930038</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>33.11446019852435</v>
+        <v>26.01454239774573</v>
       </c>
       <c r="J14">
-        <v>9.528911599169211</v>
+        <v>5.330056885491454</v>
       </c>
       <c r="K14">
         <v>0</v>
       </c>
       <c r="L14">
-        <v>11.70827819986646</v>
+        <v>7.209111225135993</v>
       </c>
       <c r="M14">
-        <v>19.6800872839111</v>
+        <v>16.88714974489197</v>
       </c>
       <c r="N14">
-        <v>20.90129911913207</v>
+        <v>12.60785004499501</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1032,43 +1032,43 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>24.29604762720489</v>
+        <v>30.69364737579906</v>
       </c>
       <c r="C15">
-        <v>13.2628138714214</v>
+        <v>23.34295119020359</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>10.52977254406679</v>
+        <v>7.880077601380808</v>
       </c>
       <c r="F15">
-        <v>46.71085492302217</v>
+        <v>40.58282823830465</v>
       </c>
       <c r="G15">
-        <v>3.717106248711519</v>
+        <v>2.053497890441998</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>33.11274542053535</v>
+        <v>25.94471162700236</v>
       </c>
       <c r="J15">
-        <v>9.531705556231444</v>
+        <v>5.342905313213094</v>
       </c>
       <c r="K15">
         <v>0</v>
       </c>
       <c r="L15">
-        <v>11.70862578351554</v>
+        <v>7.196268472850255</v>
       </c>
       <c r="M15">
-        <v>19.67023698700138</v>
+        <v>16.81397397130117</v>
       </c>
       <c r="N15">
-        <v>20.90911329751874</v>
+        <v>12.64115379172628</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1079,43 +1079,43 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>24.02845232434971</v>
+        <v>29.62475327553392</v>
       </c>
       <c r="C16">
-        <v>12.92636254896637</v>
+        <v>22.49401471141733</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>10.49833303422999</v>
+        <v>7.725978681578383</v>
       </c>
       <c r="F16">
-        <v>46.62153681986544</v>
+        <v>39.71060500531696</v>
       </c>
       <c r="G16">
-        <v>3.719610826477834</v>
+        <v>2.061692321945032</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>33.10516422781664</v>
+        <v>25.55312481592359</v>
       </c>
       <c r="J16">
-        <v>9.547906738887518</v>
+        <v>5.4163180798205</v>
       </c>
       <c r="K16">
         <v>0</v>
       </c>
       <c r="L16">
-        <v>11.71101683841221</v>
+        <v>7.123303237282864</v>
       </c>
       <c r="M16">
-        <v>19.6148266655179</v>
+        <v>16.3930162112103</v>
       </c>
       <c r="N16">
-        <v>20.95448040534768</v>
+        <v>12.83259662815806</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1126,43 +1126,43 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>23.86443002368452</v>
+        <v>28.95775736886064</v>
       </c>
       <c r="C17">
-        <v>12.71640015451861</v>
+        <v>21.96499935217393</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>10.47885065437423</v>
+        <v>7.631901740200902</v>
       </c>
       <c r="F17">
-        <v>46.5696197523377</v>
+        <v>39.18038292094801</v>
       </c>
       <c r="G17">
-        <v>3.721180094386317</v>
+        <v>2.066729014755273</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>33.10251512813671</v>
+        <v>25.32036078516619</v>
       </c>
       <c r="J17">
-        <v>9.558015836085515</v>
+        <v>5.461201096880367</v>
       </c>
       <c r="K17">
         <v>0</v>
       </c>
       <c r="L17">
-        <v>11.71284055999291</v>
+        <v>7.079105293534734</v>
       </c>
       <c r="M17">
-        <v>19.5817704009589</v>
+        <v>16.13334363506316</v>
       </c>
       <c r="N17">
-        <v>20.98283644726387</v>
+        <v>12.9505946239967</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1173,43 +1173,43 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>23.7701743741001</v>
+        <v>28.56989791030307</v>
       </c>
       <c r="C18">
-        <v>12.59435948557309</v>
+        <v>21.65760374385126</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>10.46757309967386</v>
+        <v>7.577925950384678</v>
       </c>
       <c r="F18">
-        <v>46.54081988384105</v>
+        <v>38.87717833325666</v>
       </c>
       <c r="G18">
-        <v>3.72209478337115</v>
+        <v>2.069631095136172</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>33.10172617766026</v>
+        <v>25.18914756564534</v>
       </c>
       <c r="J18">
-        <v>9.563893077232628</v>
+        <v>5.486975342406581</v>
       </c>
       <c r="K18">
         <v>0</v>
       </c>
       <c r="L18">
-        <v>11.71402093486677</v>
+        <v>7.053891483587854</v>
       </c>
       <c r="M18">
-        <v>19.56310529537613</v>
+        <v>15.98347130367387</v>
       </c>
       <c r="N18">
-        <v>20.99933927589736</v>
+        <v>13.01867785227907</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1220,43 +1220,43 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>23.73827905673154</v>
+        <v>28.43784316091507</v>
       </c>
       <c r="C19">
-        <v>12.55282276121623</v>
+        <v>21.55298003845307</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>10.4637423762538</v>
+        <v>7.559670845908434</v>
       </c>
       <c r="F19">
-        <v>46.5312514305962</v>
+        <v>38.7748203850163</v>
       </c>
       <c r="G19">
-        <v>3.722406560927168</v>
+        <v>2.070614707582175</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>33.10158515259094</v>
+        <v>25.14517207674869</v>
       </c>
       <c r="J19">
-        <v>9.565893808310383</v>
+        <v>5.49569633886611</v>
       </c>
       <c r="K19">
         <v>0</v>
       </c>
       <c r="L19">
-        <v>11.71444318524882</v>
+        <v>7.045390256503345</v>
       </c>
       <c r="M19">
-        <v>19.55684574318029</v>
+        <v>15.93263981594786</v>
       </c>
       <c r="N19">
-        <v>21.0049600604872</v>
+        <v>13.04176739957467</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1267,43 +1267,43 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>23.88188240103444</v>
+        <v>29.02919533448668</v>
       </c>
       <c r="C20">
-        <v>12.73888382286804</v>
+        <v>22.02163468561758</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>10.48093201742699</v>
+        <v>7.641901722534683</v>
       </c>
       <c r="F20">
-        <v>46.57503664845567</v>
+        <v>39.23664294464005</v>
       </c>
       <c r="G20">
-        <v>3.721011792958437</v>
+        <v>2.066192355386542</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>33.10272106494932</v>
+        <v>25.34486128155814</v>
       </c>
       <c r="J20">
-        <v>9.556933215165083</v>
+        <v>5.456427824478673</v>
       </c>
       <c r="K20">
         <v>0</v>
       </c>
       <c r="L20">
-        <v>11.71263282626466</v>
+        <v>7.083788760706411</v>
       </c>
       <c r="M20">
-        <v>19.58525336920712</v>
+        <v>16.16103985545456</v>
       </c>
       <c r="N20">
-        <v>20.9797979118183</v>
+        <v>12.93801163400528</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1314,43 +1314,43 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>24.36515042607937</v>
+        <v>30.96620368253606</v>
       </c>
       <c r="C21">
-        <v>13.34855331214983</v>
+        <v>23.55967325043207</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>10.53782927995752</v>
+        <v>7.920033587023775</v>
       </c>
       <c r="F21">
-        <v>46.73480075537117</v>
+        <v>40.80954450226077</v>
       </c>
       <c r="G21">
-        <v>3.716469723257688</v>
+        <v>2.051383909950281</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>33.11532222758976</v>
+        <v>26.04818291986895</v>
       </c>
       <c r="J21">
-        <v>9.527575176927328</v>
+        <v>5.323891306409831</v>
       </c>
       <c r="K21">
         <v>0</v>
       </c>
       <c r="L21">
-        <v>11.70811857577114</v>
+        <v>7.215280845226325</v>
       </c>
       <c r="M21">
-        <v>19.6848289801627</v>
+        <v>16.92221083279369</v>
       </c>
       <c r="N21">
-        <v>20.89756238420811</v>
+        <v>12.59189012913821</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1361,43 +1361,43 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>24.68102796243648</v>
+        <v>32.19640888978799</v>
       </c>
       <c r="C22">
-        <v>13.73499131214584</v>
+        <v>24.53928864254338</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>10.57437652595184</v>
+        <v>8.103765427643578</v>
       </c>
       <c r="F22">
-        <v>46.84857199209523</v>
+        <v>41.85383948960567</v>
       </c>
       <c r="G22">
-        <v>3.713608068344191</v>
+        <v>2.041716667496941</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>33.13011750020535</v>
+        <v>26.53326404925043</v>
       </c>
       <c r="J22">
-        <v>9.508942394947493</v>
+        <v>5.236569222630695</v>
       </c>
       <c r="K22">
         <v>0</v>
       </c>
       <c r="L22">
-        <v>11.70633280718915</v>
+        <v>7.30306385878302</v>
       </c>
       <c r="M22">
-        <v>19.75292064040354</v>
+        <v>17.41496476998832</v>
       </c>
       <c r="N22">
-        <v>20.84553014732635</v>
+        <v>12.36737175889641</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1408,43 +1408,43 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>24.51246970280025</v>
+        <v>31.54299663490237</v>
       </c>
       <c r="C23">
-        <v>13.52987029765951</v>
+        <v>24.01867523370474</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>10.55492893871679</v>
+        <v>8.005484679668371</v>
       </c>
       <c r="F23">
-        <v>46.78699911155002</v>
+        <v>41.2949443129739</v>
       </c>
       <c r="G23">
-        <v>3.715125648696841</v>
+        <v>2.046877064564137</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>33.121620107833</v>
+        <v>26.27195413148491</v>
       </c>
       <c r="J23">
-        <v>9.518836548929322</v>
+        <v>5.283256260718806</v>
       </c>
       <c r="K23">
         <v>0</v>
       </c>
       <c r="L23">
-        <v>11.70717963393883</v>
+        <v>7.256043252748665</v>
       </c>
       <c r="M23">
-        <v>19.71630740754513</v>
+        <v>17.15240379187971</v>
       </c>
       <c r="N23">
-        <v>20.87314427881854</v>
+        <v>12.48705633510174</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1455,43 +1455,43 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>23.87399203926301</v>
+        <v>28.9969119377076</v>
       </c>
       <c r="C24">
-        <v>12.72872309292122</v>
+        <v>21.99604002144114</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>10.47999127265007</v>
+        <v>7.637380394817332</v>
       </c>
       <c r="F24">
-        <v>46.57258440459422</v>
+        <v>39.21120272447943</v>
       </c>
       <c r="G24">
-        <v>3.721087843103332</v>
+        <v>2.066434958730318</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>33.10262567471515</v>
+        <v>25.3337765080917</v>
       </c>
       <c r="J24">
-        <v>9.557422464369845</v>
+        <v>5.458585909586143</v>
       </c>
       <c r="K24">
         <v>0</v>
       </c>
       <c r="L24">
-        <v>11.71272633180347</v>
+        <v>7.081670754036719</v>
       </c>
       <c r="M24">
-        <v>19.58367766123458</v>
+        <v>16.14852020822906</v>
       </c>
       <c r="N24">
-        <v>20.98117100890988</v>
+        <v>12.94369963946328</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1502,43 +1502,43 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>23.18902021149501</v>
+        <v>26.15888426944669</v>
       </c>
       <c r="C25">
-        <v>11.81632833875873</v>
+        <v>19.69405323326755</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>10.39641271365947</v>
+        <v>7.245185426233872</v>
       </c>
       <c r="F25">
-        <v>46.38191938514733</v>
+        <v>37.03124557866946</v>
       </c>
       <c r="G25">
-        <v>3.727981655479989</v>
+        <v>2.087741619629</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>33.11020964315897</v>
+        <v>24.42295669126488</v>
       </c>
       <c r="J25">
-        <v>9.601445663726411</v>
+        <v>5.646277849867241</v>
       </c>
       <c r="K25">
         <v>0</v>
       </c>
       <c r="L25">
-        <v>11.72373660893299</v>
+        <v>6.901542389086322</v>
       </c>
       <c r="M25">
-        <v>19.45396165529186</v>
+        <v>15.04633071298133</v>
       </c>
       <c r="N25">
-        <v>21.10508566990527</v>
+        <v>13.44458605990205</v>
       </c>
       <c r="O25">
         <v>0</v>
